--- a/log/data_4o.xlsx
+++ b/log/data_4o.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,25 +449,30 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
+          <t>Time Graph Const</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
           <t>Time Graph Plan</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>Time Path Plan</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>Time Assign</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>Time Total</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>Time Reloc Plan</t>
         </is>
@@ -491,37 +496,42 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>b4,b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.39367</t>
+          <t>0.0480936</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.038836</t>
+          <t>0.000886</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.000375</t>
+          <t>8.26484</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2.43788</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.34549</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>0.000339</t>
         </is>
       </c>
     </row>
@@ -543,37 +553,42 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>b4,b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.42272</t>
+          <t>0.0569898</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.035746</t>
+          <t>0.001596</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.000357</t>
+          <t>8.70924</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2.464</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.79702</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>0.000265</t>
         </is>
       </c>
     </row>
@@ -595,37 +610,42 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>b4,b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.42103</t>
+          <t>0.0521007</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0276</t>
+          <t>0.001329</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.000337</t>
+          <t>8.52179</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2.45391</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.60145</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>0.000296</t>
         </is>
       </c>
     </row>
@@ -647,37 +667,42 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>b4,b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.7222</t>
+          <t>0.0646286</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.022088</t>
+          <t>0.001693</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0.000333</t>
+          <t>9.0865</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2.74917</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9.18914</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>0.000299</t>
         </is>
       </c>
     </row>
@@ -699,37 +724,42 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>b4,b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.68791</t>
+          <t>0.0592084</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.021998</t>
+          <t>0.00132</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>0.000374</t>
+          <t>9.16574</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>2.71534</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9.25608</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>0.000329</t>
         </is>
       </c>
     </row>
@@ -751,37 +781,42 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>b4,b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.64854</t>
+          <t>0.0514177</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.026756</t>
+          <t>0.001235</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>0.000376</t>
+          <t>8.48913</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>2.68126</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.5706</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>0.000332</t>
         </is>
       </c>
     </row>
@@ -803,37 +838,42 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>b4,b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.17259</t>
+          <t>0.0511847</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.035728</t>
+          <t>0.001095</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>0.000358</t>
+          <t>8.57889</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>3.21424</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.65779</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>0.000625</t>
         </is>
       </c>
     </row>
@@ -855,37 +895,42 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>b4,b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2.87822</t>
+          <t>0.0514237</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.028132</t>
+          <t>0.001265</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>0.000379</t>
+          <t>8.4796</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>2.91176</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.56024</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>0.000297</t>
         </is>
       </c>
     </row>
@@ -907,37 +952,42 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>b4,b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2.58677</t>
+          <t>0.0569627</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.027595</t>
+          <t>0.001059</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>0.000331</t>
+          <t>8.7323</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>2.62005</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.81974</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>0.000297</t>
         </is>
       </c>
     </row>
@@ -959,37 +1009,42 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>b4,b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.06234</t>
+          <t>0.0554596</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.037886</t>
+          <t>0.001021</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>0.000343</t>
+          <t>8.6008</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>3.10522</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.6861</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>0.000514</t>
         </is>
       </c>
     </row>
@@ -1011,37 +1066,42 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>b4,b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3.32045</t>
+          <t>0.0505827</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.054393</t>
+          <t>0.000887</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>0.000353</t>
+          <t>8.42591</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>3.38049</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.50246</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>0.000287</t>
         </is>
       </c>
     </row>
@@ -1063,37 +1123,42 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>b4,b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>3.13614</t>
+          <t>0.0533767</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.02008</t>
+          <t>0.001043</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>0.000327</t>
+          <t>8.28927</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>3.1618</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.36934</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>0.000265</t>
         </is>
       </c>
     </row>
@@ -1115,37 +1180,42 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>b4,b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2.49572</t>
+          <t>0.0487537</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.034721</t>
+          <t>0.001136</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>0.000346</t>
+          <t>8.39361</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>2.53514</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.46985</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>0.00054</t>
         </is>
       </c>
     </row>
@@ -1167,37 +1237,42 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>b4,b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2.56315</t>
+          <t>0.0529147</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.028291</t>
+          <t>0.000941</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>0.000338</t>
+          <t>8.58808</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>2.59705</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.66815</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>0.000273</t>
         </is>
       </c>
     </row>
@@ -1219,37 +1294,42 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>b4,b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2.33551</t>
+          <t>0.0512947</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.030113</t>
+          <t>0.001266</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>0.000433</t>
+          <t>8.5736</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>2.37065</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.65413</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>0.000301</t>
         </is>
       </c>
     </row>
@@ -1271,37 +1351,42 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>b4,b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>3.00353</t>
+          <t>0.0519447</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.023644</t>
+          <t>0.001194</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>0.000432</t>
+          <t>8.63746</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>3.03245</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.71879</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>0.000472</t>
         </is>
       </c>
     </row>
@@ -1323,37 +1408,42 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>b4,b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2.90744</t>
+          <t>0.0514776</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.037245</t>
+          <t>0.001889</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>0.000352</t>
+          <t>8.46875</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>2.9502</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.54886</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>0.000465</t>
         </is>
       </c>
     </row>
@@ -1375,37 +1465,42 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>b4,b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2.47096</t>
+          <t>0.0531227</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.029774</t>
+          <t>0.001151</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>0.000323</t>
+          <t>8.52164</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>2.50585</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.60077</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>0.000487</t>
         </is>
       </c>
     </row>
@@ -1427,37 +1522,42 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>b4,b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2.59041</t>
+          <t>0.0529228</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.029008</t>
+          <t>0.001455</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>0.00039</t>
+          <t>8.32314</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>2.62432</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.40433</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>0.000312</t>
         </is>
       </c>
     </row>
@@ -1479,37 +1579,42 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>b4,b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2.86633</t>
+          <t>0.0518046</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.040552</t>
+          <t>0.001092</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>0.000354</t>
+          <t>8.41304</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>2.91251</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.49111</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>0.000494</t>
         </is>
       </c>
     </row>
@@ -1531,37 +1636,42 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>b4,b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2.21625</t>
+          <t>0.0503857</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.028535</t>
+          <t>0.00127</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>0.000296</t>
+          <t>8.47779</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>2.24968</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.55447</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>0.000288</t>
         </is>
       </c>
     </row>
@@ -1583,37 +1693,42 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>b4,b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2.65723</t>
+          <t>0.0490857</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.028695</t>
+          <t>0.001</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>0.000359</t>
+          <t>8.33974</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>2.69134</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.41475</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>0.000274</t>
         </is>
       </c>
     </row>
@@ -1635,37 +1750,42 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>b4,b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2.8362</t>
+          <t>0.0517516</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.039847</t>
+          <t>0.00116</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>0.00042</t>
+          <t>8.45988</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>2.88142</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.53981</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>0.000331</t>
         </is>
       </c>
     </row>
@@ -1687,37 +1807,42 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>b4,b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2.31393</t>
+          <t>0.0539736</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.066826</t>
+          <t>0.001115</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>0.000326</t>
+          <t>8.91472</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>2.38609</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.99784</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>0.000291</t>
         </is>
       </c>
     </row>
@@ -1739,37 +1864,42 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>b4,b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2.83104</t>
+          <t>0.0662115</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.031831</t>
+          <t>0.001677</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>0.000331</t>
+          <t>9.19545</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>2.86851</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9.29028</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>0.000297</t>
         </is>
       </c>
     </row>
@@ -1791,37 +1921,42 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>b4,b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>1.89362</t>
+          <t>0.0530867</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.031804</t>
+          <t>0.001163</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>0.000339</t>
+          <t>8.53349</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>1.93099</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.6145</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>0.000306</t>
         </is>
       </c>
     </row>
@@ -1843,37 +1978,42 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>b4,b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2.20823</t>
+          <t>0.0546307</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.040575</t>
+          <t>0.000982</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>0.00033</t>
+          <t>8.82722</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>2.2543</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.91062</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>0.000288</t>
         </is>
       </c>
     </row>
@@ -1895,37 +2035,42 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>b4,b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2.21204</t>
+          <t>0.0504097</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.018886</t>
+          <t>0.001287</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>0.000332</t>
+          <t>8.47723</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>2.23629</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.56428</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>0.000314</t>
         </is>
       </c>
     </row>
@@ -1947,37 +2092,42 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>b4,b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2.66069</t>
+          <t>0.0530347</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0.030695</t>
+          <t>0.001389</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>0.000365</t>
+          <t>8.55108</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>2.69642</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.63499</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>0.000363</t>
         </is>
       </c>
     </row>
@@ -1999,37 +2149,42 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>b4,b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2.86795</t>
+          <t>0.0503188</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0.035008</t>
+          <t>0.00107</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>0.000369</t>
+          <t>8.4982</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>2.90817</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.57928</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>0.00028</t>
         </is>
       </c>
     </row>
@@ -2051,37 +2206,42 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>b4,b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2.58966</t>
+          <t>0.0534797</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0.035901</t>
+          <t>0.001024</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>0.000374</t>
+          <t>8.39201</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>2.63141</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.47514</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>0.000287</t>
         </is>
       </c>
     </row>
@@ -2103,37 +2263,42 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>b4,b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2.76651</t>
+          <t>0.0572546</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0.031402</t>
+          <t>0.001584</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>0.00051</t>
+          <t>8.87064</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>2.80327</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.96061</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>0.000314</t>
         </is>
       </c>
     </row>
@@ -2155,37 +2320,42 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>b4,b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>3.01219</t>
+          <t>0.0504696</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>0.035526</t>
+          <t>0.001339</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>0.000432</t>
+          <t>8.44969</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>3.05308</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.52815</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>0.000282</t>
         </is>
       </c>
     </row>
@@ -2207,37 +2377,42 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>b4,b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2.77982</t>
+          <t>0.0513607</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>0.028668</t>
+          <t>0.00125</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>0.000342</t>
+          <t>8.44448</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>2.81328</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.52469</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>0.000306</t>
         </is>
       </c>
     </row>
@@ -2259,37 +2434,42 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>b4,b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>3.12931</t>
+          <t>0.0557196</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>0.026383</t>
+          <t>0.001178</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>0.000368</t>
+          <t>8.3892</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>3.16109</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.47339</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>0.000276</t>
         </is>
       </c>
     </row>
@@ -2311,37 +2491,42 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>b4,b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>3.08757</t>
+          <t>0.0529697</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>0.044254</t>
+          <t>0.001547</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>0.000345</t>
+          <t>8.61199</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>3.13735</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.7028</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>0.000352</t>
         </is>
       </c>
     </row>
@@ -2363,37 +2548,42 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>b4,b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>3.27367</t>
+          <t>0.0529417</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>0.025639</t>
+          <t>0.001184</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>0.000335</t>
+          <t>8.57313</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>3.30468</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.65738</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>0.000353</t>
         </is>
       </c>
     </row>
@@ -2415,37 +2605,42 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>b4,b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2.21374</t>
+          <t>0.0499147</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>0.042435</t>
+          <t>0.001106</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>0.000348</t>
+          <t>8.39881</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>2.26141</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.47673</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>0.000274</t>
         </is>
       </c>
     </row>
@@ -2467,37 +2662,42 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>b4,b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2.25585</t>
+          <t>0.0513887</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>0.02658</t>
+          <t>0.001136</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>0.000339</t>
+          <t>8.44869</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>2.28712</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.52973</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>0.000298</t>
         </is>
       </c>
     </row>
@@ -2519,37 +2719,42 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>b4,b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2.16742</t>
+          <t>0.0527937</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>0.02476</t>
+          <t>0.001152</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>0.000364</t>
+          <t>8.52069</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>2.1969</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.60366</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>0.000284</t>
         </is>
       </c>
     </row>
@@ -2571,37 +2776,42 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>b4,b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2.55792</t>
+          <t>0.0519686</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>0.026785</t>
+          <t>0.00099</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>0.000379</t>
+          <t>8.4731</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>2.58945</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.55338</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>0.00033</t>
         </is>
       </c>
     </row>
@@ -2623,37 +2833,42 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>b4,b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2.35054</t>
+          <t>0.0485417</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>0.046545</t>
+          <t>0.00111</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>0.000317</t>
+          <t>8.33759</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>2.40267</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.41346</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>0.00054</t>
         </is>
       </c>
     </row>
@@ -2675,37 +2890,42 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>b4,b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>3.0792</t>
+          <t>0.0528485</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>0.037412</t>
+          <t>0.001337</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>0.000403</t>
+          <t>8.65285</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>3.12211</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.73557</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>0.000502</t>
         </is>
       </c>
     </row>
@@ -2727,37 +2947,42 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>b4,b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2.61945</t>
+          <t>0.0506406</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>0.036735</t>
+          <t>0.001013</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>0.000365</t>
+          <t>8.3068</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>2.66153</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.38618</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>0.000438</t>
         </is>
       </c>
     </row>
@@ -2779,37 +3004,42 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>b4,b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2.9746</t>
+          <t>0.0506917</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>0.04933</t>
+          <t>0.00133</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>0.000368</t>
+          <t>8.27394</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>3.02922</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.35236</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>0.000555</t>
         </is>
       </c>
     </row>
@@ -2831,37 +3061,42 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>b4,b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2.45375</t>
+          <t>0.0491468</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>0.036872</t>
+          <t>0.001029</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>0.000327</t>
+          <t>8.26058</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>2.49617</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.33608</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>0.000271</t>
         </is>
       </c>
     </row>
@@ -2883,37 +3118,42 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>b4,b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2.53218</t>
+          <t>0.0537586</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>0.030449</t>
+          <t>0.001658</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>0.000414</t>
+          <t>8.73907</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>2.56784</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.8237</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>0.000289</t>
         </is>
       </c>
     </row>
@@ -2935,37 +3175,42 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>b4,b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2.2538</t>
+          <t>0.0577854</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>0.019766</t>
+          <t>0.001238</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>0.000339</t>
+          <t>8.76568</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>2.27881</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.8546</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>0.00031</t>
         </is>
       </c>
     </row>
@@ -2987,37 +3232,42 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>b4,b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>3.14883</t>
+          <t>0.0503317</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>0.029425</t>
+          <t>0.001135</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>0.000335</t>
+          <t>8.44335</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>3.18337</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.52237</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>0.000264</t>
         </is>
       </c>
     </row>
@@ -3039,37 +3289,42 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>b4,b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2.96627</t>
+          <t>0.0509026</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>0.029127</t>
+          <t>0.001271</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>0.00035</t>
+          <t>8.50464</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>3.00061</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.5885</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>0.000289</t>
         </is>
       </c>
     </row>
@@ -3091,37 +3346,42 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>b4,b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2.55352</t>
+          <t>0.0535476</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>0.035313</t>
+          <t>0.001087</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>0.000333</t>
+          <t>8.50136</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>2.59383</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.58416</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>0.000293</t>
         </is>
       </c>
     </row>
@@ -3143,37 +3403,42 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>b4,b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2.30727</t>
+          <t>0.0509317</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>0.038269</t>
+          <t>0.001276</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>0.000329</t>
+          <t>8.57202</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>2.35075</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.65381</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>0.000313</t>
         </is>
       </c>
     </row>
@@ -3195,37 +3460,42 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>b4,b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2.40115</t>
+          <t>0.0505106</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>0.023377</t>
+          <t>0.001449</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>0.000414</t>
+          <t>8.48221</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>2.4299</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.56306</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>0.000572</t>
         </is>
       </c>
     </row>
@@ -3247,37 +3517,42 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>b4,b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2.02403</t>
+          <t>0.0501878</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>0.031234</t>
+          <t>0.001316</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>0.000326</t>
+          <t>8.4367</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>2.06029</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.51651</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>0.000296</t>
         </is>
       </c>
     </row>
@@ -3299,37 +3574,42 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>b4,b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2.96886</t>
+          <t>0.0483857</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>0.02299</t>
+          <t>0.001254</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>0.000334</t>
+          <t>8.17825</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>2.9968</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.25381</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>0.000448</t>
         </is>
       </c>
     </row>
@@ -3351,37 +3631,42 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>b4,b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2.19542</t>
+          <t>0.0530177</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>0.030478</t>
+          <t>0.001204</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>0.000323</t>
+          <t>8.52522</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>2.23115</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.60716</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>0.000278</t>
         </is>
       </c>
     </row>
@@ -3403,37 +3688,42 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>b4,b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>3.08799</t>
+          <t>0.0517927</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>0.026845</t>
+          <t>0.001153</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>0.00036</t>
+          <t>8.40623</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>3.11961</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.4887</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>0.000284</t>
         </is>
       </c>
     </row>
@@ -3455,37 +3745,42 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>b4,b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2.80362</t>
+          <t>0.0519538</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>0.040058</t>
+          <t>0.0011</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>0.000397</t>
+          <t>8.39025</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>2.85015</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.47005</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>0.00031</t>
         </is>
       </c>
     </row>
@@ -3507,37 +3802,42 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>b4,b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2.90352</t>
+          <t>0.0525937</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>0.028244</t>
+          <t>0.00096</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>0.000336</t>
+          <t>8.42322</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>2.93655</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.50718</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>0.000263</t>
         </is>
       </c>
     </row>
@@ -3559,37 +3859,42 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>b4,b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2.18846</t>
+          <t>0.0632455</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>0.026666</t>
+          <t>0.001401</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>0.000357</t>
+          <t>8.81277</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>2.22027</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.90809</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>0.000276</t>
         </is>
       </c>
     </row>
@@ -3611,37 +3916,42 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>b4,b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2.60933</t>
+          <t>0.0545867</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>0.023213</t>
+          <t>0.001212</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>0.000332</t>
+          <t>8.61575</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>2.63808</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.70158</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>0.000423</t>
         </is>
       </c>
     </row>
@@ -3663,37 +3973,42 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>b4,b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2.59546</t>
+          <t>0.0515617</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>0.019777</t>
+          <t>0.001182</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>0.000349</t>
+          <t>8.37439</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>2.62035</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.45391</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>0.000264</t>
         </is>
       </c>
     </row>
@@ -3715,37 +4030,42 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>b4,b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>3.19884</t>
+          <t>0.0509836</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>0.035987</t>
+          <t>0.00181</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>0.000335</t>
+          <t>8.61245</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>3.24013</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.69745</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>0.000439</t>
         </is>
       </c>
     </row>
@@ -3767,37 +4087,42 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>b4,b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2.33375</t>
+          <t>0.0489717</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>0.03352</t>
+          <t>0.000991</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>0.000337</t>
+          <t>8.34277</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>2.37237</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.4212</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>0.000389</t>
         </is>
       </c>
     </row>
@@ -3819,37 +4144,42 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>b4,b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>3.01234</t>
+          <t>0.0589196</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>0.022128</t>
+          <t>0.001616</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>0.00034</t>
+          <t>8.69271</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>3.03903</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.78272</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>0.000496</t>
         </is>
       </c>
     </row>
@@ -3871,37 +4201,42 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>b4,b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2.30396</t>
+          <t>0.0482157</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>0.026915</t>
+          <t>0.00107</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>0.000334</t>
+          <t>8.31517</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>2.3364</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.39193</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>0.000317</t>
         </is>
       </c>
     </row>
@@ -3923,37 +4258,42 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>b4,b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2.64253</t>
+          <t>0.0536277</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>0.034263</t>
+          <t>0.001212</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>0.000379</t>
+          <t>8.54683</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>2.68269</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.62741</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>0.000279</t>
         </is>
       </c>
     </row>
@@ -3975,37 +4315,42 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>b4,b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2.75822</t>
+          <t>0.0505487</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>0.033316</t>
+          <t>0.001831</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>0.000355</t>
+          <t>8.38708</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>2.79689</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.46562</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>0.000417</t>
         </is>
       </c>
     </row>
@@ -4027,37 +4372,42 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>b4,b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2.52687</t>
+          <t>0.0495417</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>0.034861</t>
+          <t>0.001036</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>0.000412</t>
+          <t>8.2478</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>2.56725</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.32468</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>0.000353</t>
         </is>
       </c>
     </row>
@@ -4079,37 +4429,42 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>b4,b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2.63989</t>
+          <t>0.0521296</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>0.024315</t>
+          <t>0.001416</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>0.00034</t>
+          <t>8.56642</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>2.66951</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.64976</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>0.000291</t>
         </is>
       </c>
     </row>
@@ -4131,37 +4486,42 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>b4,b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>3.06008</t>
+          <t>0.0490966</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>0.01682</t>
+          <t>0.001082</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>0.000351</t>
+          <t>8.46226</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>3.08196</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.53847</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>0.000278</t>
         </is>
       </c>
     </row>
@@ -4183,37 +4543,42 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>b4,b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2.37388</t>
+          <t>0.0487807</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>0.019496</t>
+          <t>0.001222</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>0.000329</t>
+          <t>8.25542</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>2.39833</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.33224</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>0.000298</t>
         </is>
       </c>
     </row>
@@ -4235,37 +4600,42 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>b4,b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2.97518</t>
+          <t>0.0502487</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>0.02467</t>
+          <t>0.001334</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>0.000338</t>
+          <t>8.52171</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>3.00519</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.6004</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>0.000312</t>
         </is>
       </c>
     </row>
@@ -4287,37 +4657,42 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>b4,b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2.5848</t>
+          <t>0.0478438</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>0.029649</t>
+          <t>0.000979</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>0.000328</t>
+          <t>8.36236</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>2.61982</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.43766</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>0.000289</t>
         </is>
       </c>
     </row>
@@ -4339,37 +4714,42 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>b4,b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2.74726</t>
+          <t>0.0502476</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>0.018732</t>
+          <t>0.000954</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>0.000406</t>
+          <t>8.41716</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>2.77133</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.49527</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>0.000532</t>
         </is>
       </c>
     </row>
@@ -4391,37 +4771,42 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>b4,b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2.09286</t>
+          <t>0.0528756</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>0.030135</t>
+          <t>0.001338</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>0.000337</t>
+          <t>8.60203</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>2.12834</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.68333</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>0.000396</t>
         </is>
       </c>
     </row>
@@ -4443,37 +4828,42 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>b4,b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2.15954</t>
+          <t>0.0550586</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>0.029282</t>
+          <t>0.001009</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>0.000328</t>
+          <t>8.54784</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>2.19404</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.63202</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>0.000298</t>
         </is>
       </c>
     </row>
@@ -4495,37 +4885,42 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>b4,b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2.83049</t>
+          <t>0.0498887</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>0.028785</t>
+          <t>0.00096</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>0.000408</t>
+          <t>8.34478</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>2.86445</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.42336</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>0.000393</t>
         </is>
       </c>
     </row>
@@ -4547,37 +4942,42 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>b4,b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2.29735</t>
+          <t>0.0496307</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>0.024725</t>
+          <t>0.001065</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>0.000416</t>
+          <t>8.39981</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>2.32701</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.47686</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>0.000286</t>
         </is>
       </c>
     </row>
@@ -4599,37 +4999,42 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>b4,b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2.7246</t>
+          <t>0.0530626</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>0.03791</t>
+          <t>0.001572</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>0.000413</t>
+          <t>8.60502</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>2.76797</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.6894</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>0.000316</t>
         </is>
       </c>
     </row>
@@ -4651,37 +5056,42 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>b4,b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2.48253</t>
+          <t>0.0583685</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>0.069227</t>
+          <t>0.001647</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>0.000393</t>
+          <t>9.13048</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>2.55714</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9.22589</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>0.000277</t>
         </is>
       </c>
     </row>
@@ -4703,37 +5113,42 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>b4,b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2.28217</t>
+          <t>0.0496386</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>0.036757</t>
+          <t>0.001044</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>0.000332</t>
+          <t>8.20433</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>2.32383</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.28092</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>0.000262</t>
         </is>
       </c>
     </row>
@@ -4755,37 +5170,42 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>b4,b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2.50929</t>
+          <t>0.0518246</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>0.025547</t>
+          <t>0.001241</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>0.000346</t>
+          <t>8.41163</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>2.53993</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.49401</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>0.00027</t>
         </is>
       </c>
     </row>
@@ -4807,37 +5227,42 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>b4,b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2.22673</t>
+          <t>0.0541887</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>0.025146</t>
+          <t>0.001062</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>0.000349</t>
+          <t>8.44093</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>2.25716</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.5242</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>0.000297</t>
         </is>
       </c>
     </row>
@@ -4859,37 +5284,42 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>b4,b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2.49088</t>
+          <t>0.0497016</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>0.027968</t>
+          <t>0.001271</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>0.000358</t>
+          <t>8.46447</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>2.52403</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.54425</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>0.000286</t>
         </is>
       </c>
     </row>
@@ -4911,37 +5341,42 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>b4,b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2.76018</t>
+          <t>0.0517856</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>0.039203</t>
+          <t>0.001129</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>0.000353</t>
+          <t>8.36262</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>2.80459</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.44191</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>0.000272</t>
         </is>
       </c>
     </row>
@@ -4963,37 +5398,42 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>b4,b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2.31484</t>
+          <t>0.0506196</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>0.020994</t>
+          <t>0.001026</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>0.000334</t>
+          <t>8.41532</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>2.34085</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.49366</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>0.000296</t>
         </is>
       </c>
     </row>
@@ -5015,37 +5455,42 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>b4,b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>3.20564</t>
+          <t>0.0544827</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>0.03628</t>
+          <t>0.00129</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>0.000432</t>
+          <t>8.37009</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>3.24779</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.45247</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>0.000304</t>
         </is>
       </c>
     </row>
@@ -5067,37 +5512,42 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>b4,b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2.43099</t>
+          <t>0.0490137</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>0.033933</t>
+          <t>0.001148</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>0.000331</t>
+          <t>8.29649</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>2.46996</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.37356</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>0.000321</t>
         </is>
       </c>
     </row>
@@ -5119,37 +5569,42 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>b4,b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2.22933</t>
+          <t>0.0564595</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>0.033271</t>
+          <t>0.001506</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>0.000312</t>
+          <t>8.79354</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>2.26765</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.8836</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>0.000298</t>
         </is>
       </c>
     </row>
@@ -5171,37 +5626,42 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>b4,b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>2.60399</t>
+          <t>0.0485167</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>0.036593</t>
+          <t>0.00125</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>0.000312</t>
+          <t>8.4178</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>2.64566</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.49669</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>0.000282</t>
         </is>
       </c>
     </row>
@@ -5223,37 +5683,42 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>b4,b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>2.89624</t>
+          <t>0.0511286</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>0.049643</t>
+          <t>0.001131</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>0.000331</t>
+          <t>8.36969</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>2.95135</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.44841</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>0.00027</t>
         </is>
       </c>
     </row>
@@ -5275,37 +5740,42 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>b4,b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>2.60172</t>
+          <t>0.0509447</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>0.025847</t>
+          <t>0.001059</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>0.000366</t>
+          <t>8.53063</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>2.63298</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.60819</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>0.000277</t>
         </is>
       </c>
     </row>
@@ -5327,37 +5797,42 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>b4,b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>2.29327</t>
+          <t>0.0508877</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>0.047662</t>
+          <t>0.001613</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>0.000399</t>
+          <t>8.4471</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>2.34671</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.52717</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>0.000279</t>
         </is>
       </c>
     </row>
@@ -5379,37 +5854,42 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>b4,b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>3.18743</t>
+          <t>0.0488407</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>0.026244</t>
+          <t>0.001011</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>0.000361</t>
+          <t>8.33433</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>3.2194</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.41103</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>0.000357</t>
         </is>
       </c>
     </row>
@@ -5431,37 +5911,42 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>b4,b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>2.78494</t>
+          <t>0.0472877</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>0.024779</t>
+          <t>0.001203</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>0.000341</t>
+          <t>8.24422</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>2.8146</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.31905</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>0.00031</t>
         </is>
       </c>
     </row>
@@ -5483,37 +5968,42 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>b4,b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>2.53867</t>
+          <t>0.0505457</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>0.018464</t>
+          <t>0.001335</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>0.000343</t>
+          <t>8.38216</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>2.56207</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.46181</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>0.000267</t>
         </is>
       </c>
     </row>
@@ -5535,37 +6025,42 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>b4,b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>2.83308</t>
+          <t>0.0575086</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>0.026739</t>
+          <t>0.001085</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>0.000354</t>
+          <t>8.73024</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>2.86529</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.81871</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>0.000258</t>
         </is>
       </c>
     </row>
@@ -5587,37 +6082,42 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>b4,b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>2.50947</t>
+          <t>0.0552725</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>0.039792</t>
+          <t>0.001198</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>0.000377</t>
+          <t>8.68024</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>2.55465</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.76904</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>0.000296</t>
         </is>
       </c>
     </row>
@@ -5639,37 +6139,42 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>b4,b2,b3,b1</t>
+          <t>b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>2.3219</t>
+          <t>0.0498837</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>0.033921</t>
+          <t>0.001165</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>0.000342</t>
+          <t>8.45081</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>2.36138</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.52879</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>0.000316</t>
         </is>
       </c>
     </row>

--- a/log/data_4o.xlsx
+++ b/log/data_4o.xlsx
@@ -496,7 +496,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -506,17 +506,17 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.0151597</t>
+          <t>0.00874598</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.000288</t>
+          <t>0.000265</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2.0271</t>
+          <t>0.013819</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -526,12 +526,12 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2.0516</t>
+          <t>0.030677</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>0.000143</t>
+          <t>9.2e-05</t>
         </is>
       </c>
     </row>
@@ -563,17 +563,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.0145148</t>
+          <t>0.00852198</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.000296</t>
+          <t>0.000289</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2.09442</t>
+          <t>0.02284</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -583,12 +583,12 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2.11753</t>
+          <t>0.039381</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>8.7e-05</t>
+          <t>8.3e-05</t>
         </is>
       </c>
     </row>
@@ -620,17 +620,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.0142428</t>
+          <t>0.00875199</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.000298</t>
+          <t>0.000278</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2.11686</t>
+          <t>0.018367</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -640,12 +640,12 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>2.14059</t>
+          <t>0.035324</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>8.2e-05</t>
+          <t>7.7e-05</t>
         </is>
       </c>
     </row>
@@ -667,7 +667,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -677,17 +677,17 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.0156287</t>
+          <t>0.00857898</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.00029</t>
+          <t>0.000265</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2.28832</t>
+          <t>0.018425</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -697,12 +697,12 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>2.31307</t>
+          <t>0.034688</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>0.000149</t>
+          <t>9.6e-05</t>
         </is>
       </c>
     </row>
@@ -719,7 +719,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -727,24 +727,20 @@
           <t>0</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>b4,b2,b3,b1</t>
-        </is>
-      </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.0154117</t>
+          <t>0.00865798</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.000307</t>
+          <t>0.000268</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2.22269</t>
+          <t>0.015749</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -754,12 +750,12 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>2.24766</t>
+          <t>0.032506</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>9.3e-05</t>
+          <t>0.000121</t>
         </is>
       </c>
     </row>
@@ -791,17 +787,17 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.0152558</t>
+          <t>0.00860299</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.000276</t>
+          <t>0.000249</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2.21082</t>
+          <t>0.017837</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -811,12 +807,12 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>2.23595</t>
+          <t>0.034785</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>9.2e-05</t>
+          <t>7.1e-05</t>
         </is>
       </c>
     </row>
@@ -848,17 +844,17 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.0163768</t>
+          <t>0.00877397</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.000299</t>
+          <t>0.000281</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2.64164</t>
+          <t>0.023602</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -868,12 +864,12 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>2.66738</t>
+          <t>0.04059</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>8.3e-05</t>
+          <t>9e-05</t>
         </is>
       </c>
     </row>
@@ -905,17 +901,17 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.0150867</t>
+          <t>0.00888298</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.000301</t>
+          <t>0.000273</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2.4158</t>
+          <t>0.023879</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -925,12 +921,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>2.44056</t>
+          <t>0.04083</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>0.000103</t>
+          <t>7.4e-05</t>
         </is>
       </c>
     </row>
@@ -962,17 +958,17 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.0147868</t>
+          <t>0.00880898</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.000306</t>
+          <t>0.000257</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2.17941</t>
+          <t>0.024464</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -982,12 +978,12 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>2.20339</t>
+          <t>0.041217</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>8.9e-05</t>
+          <t>7.9e-05</t>
         </is>
       </c>
     </row>
@@ -1019,17 +1015,17 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.0164218</t>
+          <t>0.00859798</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.000287</t>
+          <t>0.000259</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2.56415</t>
+          <t>0.018314</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1039,12 +1035,12 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>2.58976</t>
+          <t>0.03461</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>8.4e-05</t>
+          <t>7.6e-05</t>
         </is>
       </c>
     </row>
@@ -1076,17 +1072,17 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0.0179179</t>
+          <t>0.00895298</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.000312</t>
+          <t>0.000274</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2.8221</t>
+          <t>0.019358</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1096,12 +1092,12 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>2.84953</t>
+          <t>0.036436</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>9.8e-05</t>
+          <t>7.6e-05</t>
         </is>
       </c>
     </row>
@@ -1123,7 +1119,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1133,17 +1129,17 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0.0176948</t>
+          <t>0.00861798</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.000298</t>
+          <t>0.000257</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2.67955</t>
+          <t>0.020894</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1153,12 +1149,12 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>2.70707</t>
+          <t>0.037731</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>0.00014</t>
+          <t>9e-05</t>
         </is>
       </c>
     </row>
@@ -1190,17 +1186,17 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0.0148417</t>
+          <t>0.00878498</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.000282</t>
+          <t>0.000283</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2.17927</t>
+          <t>0.021387</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1210,12 +1206,12 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>2.20309</t>
+          <t>0.03794</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>8.7e-05</t>
+          <t>7.9e-05</t>
         </is>
       </c>
     </row>
@@ -1247,17 +1243,17 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0.0147338</t>
+          <t>0.00845998</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.000279</t>
+          <t>0.000277</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2.21103</t>
+          <t>0.019418</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1267,12 +1263,12 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>2.23521</t>
+          <t>0.036079</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>9.1e-05</t>
+          <t>7.6e-05</t>
         </is>
       </c>
     </row>
@@ -1294,7 +1290,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1304,17 +1300,17 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0.0140048</t>
+          <t>0.00853698</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.00028</t>
+          <t>0.000276</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2.00552</t>
+          <t>0.016084</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1324,12 +1320,12 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>2.0289</t>
+          <t>0.032445</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>0.000157</t>
+          <t>9.4e-05</t>
         </is>
       </c>
     </row>
@@ -1351,7 +1347,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1361,17 +1357,17 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0.0165018</t>
+          <t>0.00874498</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.000308</t>
+          <t>0.000262</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2.5994</t>
+          <t>0.01624</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1381,12 +1377,12 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>2.62576</t>
+          <t>0.032988</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>0.00016</t>
+          <t>8.9e-05</t>
         </is>
       </c>
     </row>
@@ -1418,17 +1414,17 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0.0167658</t>
+          <t>0.00859798</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.000287</t>
+          <t>0.000272</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2.44225</t>
+          <t>0.022731</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1438,12 +1434,12 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>2.46872</t>
+          <t>0.0394</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>9.5e-05</t>
+          <t>7.3e-05</t>
         </is>
       </c>
     </row>
@@ -1460,7 +1456,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1468,24 +1464,20 @@
           <t>0</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>b4,b2,b3,b1</t>
-        </is>
-      </c>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0.0149217</t>
+          <t>0.013688</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.000281</t>
+          <t>0.000307</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2.16071</t>
+          <t>0.020364</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1495,12 +1487,12 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>2.1846</t>
+          <t>0.044203</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>8.6e-05</t>
+          <t>0.000126</t>
         </is>
       </c>
     </row>
@@ -1532,17 +1524,17 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0.0143357</t>
+          <t>0.00862998</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.000294</t>
+          <t>0.000245</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2.21954</t>
+          <t>0.016211</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1552,12 +1544,12 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>2.24311</t>
+          <t>0.032612</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>0.0001</t>
+          <t>7.7e-05</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1571,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1589,17 +1581,17 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0.0168938</t>
+          <t>0.00875799</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.000287</t>
+          <t>0.000255</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2.44596</t>
+          <t>0.019237</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1609,12 +1601,12 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>2.47251</t>
+          <t>0.035918</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>0.000141</t>
+          <t>9.2e-05</t>
         </is>
       </c>
     </row>
@@ -1646,17 +1638,17 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0.0147567</t>
+          <t>0.00839798</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.000274</t>
+          <t>0.00025</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>1.87626</t>
+          <t>0.017261</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1666,12 +1658,12 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>1.90018</t>
+          <t>0.033423</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>8.5e-05</t>
+          <t>7.4e-05</t>
         </is>
       </c>
     </row>
@@ -1703,17 +1695,17 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0.0148398</t>
+          <t>0.00916197</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.000295</t>
+          <t>0.000237</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2.19672</t>
+          <t>0.021979</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1723,12 +1715,12 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>2.22107</t>
+          <t>0.039105</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>8.7e-05</t>
+          <t>7.4e-05</t>
         </is>
       </c>
     </row>
@@ -1760,17 +1752,17 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0.0160477</t>
+          <t>0.00871498</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.000296</t>
+          <t>0.000265</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2.42991</t>
+          <t>0.022294</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1780,12 +1772,12 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>2.45535</t>
+          <t>0.038991</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>8.5e-05</t>
+          <t>7.8e-05</t>
         </is>
       </c>
     </row>
@@ -1817,17 +1809,17 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0.0134888</t>
+          <t>0.00841198</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.000303</t>
+          <t>0.000231</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2.03685</t>
+          <t>0.019517</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1837,12 +1829,12 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>2.0595</t>
+          <t>0.035805</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>9.6e-05</t>
+          <t>7.4e-05</t>
         </is>
       </c>
     </row>
@@ -1874,17 +1866,17 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0.0152598</t>
+          <t>0.00878798</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.000282</t>
+          <t>0.000276</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2.41159</t>
+          <t>0.019847</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -1894,12 +1886,12 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>2.43594</t>
+          <t>0.036466</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>8.6e-05</t>
+          <t>7.8e-05</t>
         </is>
       </c>
     </row>
@@ -1931,17 +1923,17 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0.0134848</t>
+          <t>0.00846598</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.000285</t>
+          <t>0.000251</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>1.61979</t>
+          <t>0.019088</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -1951,12 +1943,12 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>1.64229</t>
+          <t>0.035424</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>8.5e-05</t>
+          <t>7.9e-05</t>
         </is>
       </c>
     </row>
@@ -1988,17 +1980,17 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0.0144148</t>
+          <t>0.00838098</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.000282</t>
+          <t>0.00025</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>1.91099</t>
+          <t>0.019649</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2008,12 +2000,12 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>1.9348</t>
+          <t>0.036047</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>8.6e-05</t>
+          <t>7.7e-05</t>
         </is>
       </c>
     </row>
@@ -2035,7 +2027,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -2045,17 +2037,17 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0.0142007</t>
+          <t>0.00862198</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.000281</t>
+          <t>0.000253</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>1.8754</t>
+          <t>0.019436</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2065,12 +2057,12 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>1.89912</t>
+          <t>0.036149</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>0.000145</t>
+          <t>9.3e-05</t>
         </is>
       </c>
     </row>
@@ -2102,17 +2094,17 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0.0142958</t>
+          <t>0.00867798</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0.000298</t>
+          <t>0.00025</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2.2723</t>
+          <t>0.018496</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2122,12 +2114,12 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>2.29595</t>
+          <t>0.035059</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>8.6e-05</t>
+          <t>7.8e-05</t>
         </is>
       </c>
     </row>
@@ -2159,17 +2151,17 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0.0169868</t>
+          <t>0.00865399</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0.000317</t>
+          <t>0.000277</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2.43907</t>
+          <t>0.019486</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2179,12 +2171,12 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>2.46558</t>
+          <t>0.036219</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>0.000103</t>
+          <t>7.9e-05</t>
         </is>
       </c>
     </row>
@@ -2216,17 +2208,17 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0.0155558</t>
+          <t>0.00851998</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0.000318</t>
+          <t>0.000259</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2.29593</t>
+          <t>0.017526</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2236,12 +2228,12 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>2.3217</t>
+          <t>0.034227</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>8.6e-05</t>
+          <t>7.6e-05</t>
         </is>
       </c>
     </row>
@@ -2273,17 +2265,17 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0.0151247</t>
+          <t>0.00875198</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0.000309</t>
+          <t>0.000273</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2.35256</t>
+          <t>0.025117</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2293,12 +2285,12 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>2.37733</t>
+          <t>0.041843</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>0.000102</t>
+          <t>8.3e-05</t>
         </is>
       </c>
     </row>
@@ -2320,7 +2312,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2330,17 +2322,17 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>0.0163088</t>
+          <t>0.014302</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>0.000296</t>
+          <t>0.000362</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2.53401</t>
+          <t>0.027412</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2350,12 +2342,12 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>2.56012</t>
+          <t>0.052273</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>0.000145</t>
+          <t>9.1e-05</t>
         </is>
       </c>
     </row>
@@ -2387,17 +2379,17 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>0.0157347</t>
+          <t>0.00860498</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>0.000289</t>
+          <t>0.000262</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2.33581</t>
+          <t>0.017346</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2407,12 +2399,12 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>2.36061</t>
+          <t>0.033591</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>8.5e-05</t>
+          <t>7.6e-05</t>
         </is>
       </c>
     </row>
@@ -2444,17 +2436,17 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0.0160038</t>
+          <t>0.00854398</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>0.000296</t>
+          <t>0.000275</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2.62509</t>
+          <t>0.023733</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2464,12 +2456,12 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>2.6505</t>
+          <t>0.04023</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>8.7e-05</t>
+          <t>7.8e-05</t>
         </is>
       </c>
     </row>
@@ -2501,17 +2493,17 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>0.0164738</t>
+          <t>0.00870498</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>0.000317</t>
+          <t>0.000281</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2.64641</t>
+          <t>0.018791</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2521,12 +2513,12 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>2.67274</t>
+          <t>0.035688</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>8.6e-05</t>
+          <t>7.6e-05</t>
         </is>
       </c>
     </row>
@@ -2558,17 +2550,17 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>0.0172308</t>
+          <t>0.00875598</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>0.000306</t>
+          <t>0.000254</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2.79102</t>
+          <t>0.01889</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2578,12 +2570,12 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>2.81788</t>
+          <t>0.035703</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>8.9e-05</t>
+          <t>7.8e-05</t>
         </is>
       </c>
     </row>
@@ -2615,17 +2607,17 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>0.0144417</t>
+          <t>0.00863198</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>0.000284</t>
+          <t>0.000263</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>1.93006</t>
+          <t>0.018482</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -2635,12 +2627,12 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>1.95376</t>
+          <t>0.035088</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>8.2e-05</t>
+          <t>8.1e-05</t>
         </is>
       </c>
     </row>
@@ -2672,17 +2664,17 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>0.0137348</t>
+          <t>0.00852198</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>0.000282</t>
+          <t>0.000243</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>1.95673</t>
+          <t>0.019598</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2692,12 +2684,12 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>1.97913</t>
+          <t>0.035734</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>8.4e-05</t>
+          <t>7.8e-05</t>
         </is>
       </c>
     </row>
@@ -2729,17 +2721,17 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>0.0137738</t>
+          <t>0.00852698</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>0.000284</t>
+          <t>0.000255</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>1.85537</t>
+          <t>0.017801</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -2749,12 +2741,12 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>1.87783</t>
+          <t>0.033956</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>8.6e-05</t>
+          <t>7.8e-05</t>
         </is>
       </c>
     </row>
@@ -2786,17 +2778,17 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>0.0156737</t>
+          <t>0.00833198</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>0.00029</t>
+          <t>0.00028</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2.18104</t>
+          <t>0.021966</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -2806,12 +2798,12 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>2.20554</t>
+          <t>0.037973</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>8.5e-05</t>
+          <t>8.1e-05</t>
         </is>
       </c>
     </row>
@@ -2843,17 +2835,17 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>0.0151857</t>
+          <t>0.00865598</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>0.00027</t>
+          <t>0.00026</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2.05156</t>
+          <t>0.019417</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -2863,12 +2855,12 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>2.07663</t>
+          <t>0.036287</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>8.6e-05</t>
+          <t>7.9e-05</t>
         </is>
       </c>
     </row>
@@ -2900,17 +2892,17 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>0.0156907</t>
+          <t>0.00862098</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>0.000292</t>
+          <t>0.000279</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2.61662</t>
+          <t>0.019052</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -2920,12 +2912,12 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>2.64181</t>
+          <t>0.035737</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>8.7e-05</t>
+          <t>7.6e-05</t>
         </is>
       </c>
     </row>
@@ -2957,17 +2949,17 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>0.0145917</t>
+          <t>0.00860298</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>0.000288</t>
+          <t>0.000253</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2.26037</t>
+          <t>0.015673</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -2977,12 +2969,12 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>2.284</t>
+          <t>0.032275</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>9e-05</t>
+          <t>8.1e-05</t>
         </is>
       </c>
     </row>
@@ -3004,7 +2996,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -3014,17 +3006,17 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>0.0166058</t>
+          <t>0.00849998</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>0.000292</t>
+          <t>0.000276</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2.51603</t>
+          <t>0.027195</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3034,12 +3026,12 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>2.54234</t>
+          <t>0.043785</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>0.000154</t>
+          <t>8.9e-05</t>
         </is>
       </c>
     </row>
@@ -3071,17 +3063,17 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>0.0140058</t>
+          <t>0.00850598</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>0.000278</t>
+          <t>0.000257</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2.09179</t>
+          <t>0.017724</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3091,12 +3083,12 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>2.11553</t>
+          <t>0.034634</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>8.7e-05</t>
+          <t>7.9e-05</t>
         </is>
       </c>
     </row>
@@ -3128,17 +3120,17 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>0.0160008</t>
+          <t>0.00881798</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>0.000333</t>
+          <t>0.000262</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2.23646</t>
+          <t>0.019432</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3148,12 +3140,12 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>2.26298</t>
+          <t>0.036134</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>9.4e-05</t>
+          <t>7.5e-05</t>
         </is>
       </c>
     </row>
@@ -3175,7 +3167,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -3185,17 +3177,17 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>0.0141568</t>
+          <t>0.00863398</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>0.000302</t>
+          <t>0.000272</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>1.91996</t>
+          <t>0.018355</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3205,12 +3197,12 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>1.94371</t>
+          <t>0.035039</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>0.000144</t>
+          <t>8.5e-05</t>
         </is>
       </c>
     </row>
@@ -3242,17 +3234,17 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>0.0198349</t>
+          <t>0.00886599</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>0.000296</t>
+          <t>0.00027</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2.74336</t>
+          <t>0.020001</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3262,12 +3254,12 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>2.7736</t>
+          <t>0.036861</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>9e-05</t>
+          <t>7.6e-05</t>
         </is>
       </c>
     </row>
@@ -3299,17 +3291,17 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>0.0172418</t>
+          <t>0.00873798</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>0.000308</t>
+          <t>0.000268</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2.51776</t>
+          <t>0.016719</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -3319,12 +3311,12 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>2.54477</t>
+          <t>0.033698</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>8.6e-05</t>
+          <t>7.8e-05</t>
         </is>
       </c>
     </row>
@@ -3356,17 +3348,17 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>0.0156497</t>
+          <t>0.00884498</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>0.000309</t>
+          <t>0.000299</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2.19914</t>
+          <t>0.019948</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -3376,12 +3368,12 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>2.22445</t>
+          <t>0.036727</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>8.8e-05</t>
+          <t>7.6e-05</t>
         </is>
       </c>
     </row>
@@ -3413,17 +3405,17 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>0.0148568</t>
+          <t>0.00842298</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>0.000304</t>
+          <t>0.000269</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2.00133</t>
+          <t>0.022827</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -3433,12 +3425,12 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>2.0257</t>
+          <t>0.039182</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>9.1e-05</t>
+          <t>7.9e-05</t>
         </is>
       </c>
     </row>
@@ -3470,17 +3462,17 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>0.0148057</t>
+          <t>0.00851798</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>0.000294</t>
+          <t>0.000269</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>1.99983</t>
+          <t>0.017103</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -3490,12 +3482,12 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>2.02403</t>
+          <t>0.033875</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>8.6e-05</t>
+          <t>7.9e-05</t>
         </is>
       </c>
     </row>
@@ -3527,17 +3519,17 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>0.0145487</t>
+          <t>0.00856798</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>0.000297</t>
+          <t>0.000271</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>1.76393</t>
+          <t>0.020655</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -3547,12 +3539,12 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>1.78784</t>
+          <t>0.037245</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>9e-05</t>
+          <t>8e-05</t>
         </is>
       </c>
     </row>
@@ -3584,17 +3576,17 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>0.0161688</t>
+          <t>0.00864198</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>0.000272</t>
+          <t>0.000265</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2.55345</t>
+          <t>0.019272</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -3604,12 +3596,12 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>2.57918</t>
+          <t>0.035748</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>8.6e-05</t>
+          <t>8.7e-05</t>
         </is>
       </c>
     </row>
@@ -3641,17 +3633,17 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>0.0143637</t>
+          <t>0.00861498</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>0.000291</t>
+          <t>0.000282</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>1.87932</t>
+          <t>0.018833</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -3661,12 +3653,12 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>1.90304</t>
+          <t>0.035657</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>8.5e-05</t>
+          <t>7.7e-05</t>
         </is>
       </c>
     </row>
@@ -3698,17 +3690,17 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>0.0155827</t>
+          <t>0.00851298</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>0.000281</t>
+          <t>0.000255</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2.60805</t>
+          <t>0.014669</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -3718,12 +3710,12 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>2.63246</t>
+          <t>0.030856</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>8.6e-05</t>
+          <t>7.9e-05</t>
         </is>
       </c>
     </row>
@@ -3755,17 +3747,17 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>0.0162437</t>
+          <t>0.00862498</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>0.000286</t>
+          <t>0.000267</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2.38895</t>
+          <t>0.020499</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -3775,12 +3767,12 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>2.4148</t>
+          <t>0.03761</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>8.8e-05</t>
+          <t>7.9e-05</t>
         </is>
       </c>
     </row>
@@ -3802,7 +3794,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3812,17 +3804,17 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>0.0173458</t>
+          <t>0.00872798</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>0.000303</t>
+          <t>0.000266</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2.49737</t>
+          <t>0.021829</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -3832,12 +3824,12 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>2.52458</t>
+          <t>0.038455</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>0.000155</t>
+          <t>9e-05</t>
         </is>
       </c>
     </row>
@@ -3869,17 +3861,17 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>0.0145038</t>
+          <t>0.00872699</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>0.000335</t>
+          <t>0.000267</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>1.9128</t>
+          <t>0.021497</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -3889,12 +3881,12 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>1.9375</t>
+          <t>0.038369</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>9.2e-05</t>
+          <t>7.7e-05</t>
         </is>
       </c>
     </row>
@@ -3926,17 +3918,17 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>0.0150648</t>
+          <t>0.00841898</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>0.000318</t>
+          <t>0.000245</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2.26521</t>
+          <t>0.013547</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -3946,12 +3938,12 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>2.29017</t>
+          <t>0.03037</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>8.7e-05</t>
+          <t>7.7e-05</t>
         </is>
       </c>
     </row>
@@ -3983,17 +3975,17 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>0.0143748</t>
+          <t>0.00877399</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>0.000306</t>
+          <t>0.000267</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2.2269</t>
+          <t>0.018529</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -4003,12 +3995,12 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>2.25045</t>
+          <t>0.035552</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>8.4e-05</t>
+          <t>7.8e-05</t>
         </is>
       </c>
     </row>
@@ -4040,17 +4032,17 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>0.0180578</t>
+          <t>0.010622</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>0.000291</t>
+          <t>0.000288</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2.71424</t>
+          <t>0.019266</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -4060,12 +4052,12 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>2.74177</t>
+          <t>0.039043</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>8.3e-05</t>
+          <t>7.7e-05</t>
         </is>
       </c>
     </row>
@@ -4082,7 +4074,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -4090,24 +4082,20 @@
           <t>0</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>b4,b2,b3,b1</t>
-        </is>
-      </c>
+      <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr">
         <is>
-          <t>0.0140738</t>
+          <t>0.00861798</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>0.000308</t>
+          <t>0.00026</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2.04135</t>
+          <t>0.01416</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -4117,12 +4105,12 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>2.06461</t>
+          <t>0.030698</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>9.1e-05</t>
+          <t>0.000133</t>
         </is>
       </c>
     </row>
@@ -4154,17 +4142,17 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>0.0156217</t>
+          <t>0.00853598</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>0.000286</t>
+          <t>0.000267</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2.50862</t>
+          <t>0.018226</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -4174,12 +4162,12 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>2.53325</t>
+          <t>0.034293</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>8.7e-05</t>
+          <t>7.9e-05</t>
         </is>
       </c>
     </row>
@@ -4211,17 +4199,17 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>0.0141467</t>
+          <t>0.00852498</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>0.000277</t>
+          <t>0.000264</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>1.91098</t>
+          <t>0.017698</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -4231,12 +4219,12 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>1.93447</t>
+          <t>0.034686</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>8.2e-05</t>
+          <t>7.7e-05</t>
         </is>
       </c>
     </row>
@@ -4268,17 +4256,17 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>0.0164088</t>
+          <t>0.00870398</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>0.000288</t>
+          <t>0.000279</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2.22044</t>
+          <t>0.022811</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -4288,12 +4276,12 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>2.24655</t>
+          <t>0.039967</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>8.6e-05</t>
+          <t>7.7e-05</t>
         </is>
       </c>
     </row>
@@ -4325,17 +4313,17 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>0.0160788</t>
+          <t>0.012281</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>0.000288</t>
+          <t>0.000347</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2.38159</t>
+          <t>0.023846</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -4345,12 +4333,12 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>2.40717</t>
+          <t>0.045558</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>8.4e-05</t>
+          <t>7.4e-05</t>
         </is>
       </c>
     </row>
@@ -4382,17 +4370,17 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>0.0140867</t>
+          <t>0.00855398</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>0.000285</t>
+          <t>0.000286</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2.12956</t>
+          <t>0.022594</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -4402,12 +4390,12 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>2.15293</t>
+          <t>0.039152</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>8.7e-05</t>
+          <t>8e-05</t>
         </is>
       </c>
     </row>
@@ -4429,7 +4417,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -4439,17 +4427,17 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>0.0150807</t>
+          <t>0.00864499</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>0.000302</t>
+          <t>0.000285</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2.2417</t>
+          <t>0.016575</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -4459,12 +4447,12 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>2.2663</t>
+          <t>0.033325</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>0.000152</t>
+          <t>9.9e-05</t>
         </is>
       </c>
     </row>
@@ -4481,7 +4469,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -4489,24 +4477,20 @@
           <t>0</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>b4,b2,b3,b1</t>
-        </is>
-      </c>
+      <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr">
         <is>
-          <t>0.0175318</t>
+          <t>0.00857798</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>0.000298</t>
+          <t>0.000283</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2.60604</t>
+          <t>0.012243</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -4516,12 +4500,12 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>2.63275</t>
+          <t>0.028724</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>9.2e-05</t>
+          <t>0.000122</t>
         </is>
       </c>
     </row>
@@ -4553,17 +4537,17 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>0.0140638</t>
+          <t>0.00858698</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>0.000268</t>
+          <t>0.000248</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2.08042</t>
+          <t>0.020061</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -4573,12 +4557,12 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>2.10376</t>
+          <t>0.036437</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>8.9e-05</t>
+          <t>7.7e-05</t>
         </is>
       </c>
     </row>
@@ -4610,17 +4594,17 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>0.0165218</t>
+          <t>0.00875399</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>0.000296</t>
+          <t>0.000276</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2.49424</t>
+          <t>0.01908</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -4630,12 +4614,12 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>2.52031</t>
+          <t>0.035997</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>8.9e-05</t>
+          <t>8e-05</t>
         </is>
       </c>
     </row>
@@ -4667,17 +4651,17 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>0.0149807</t>
+          <t>0.00865198</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>0.000298</t>
+          <t>0.000261</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2.24103</t>
+          <t>0.018544</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -4687,12 +4671,12 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>2.26539</t>
+          <t>0.035255</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>9.6e-05</t>
+          <t>7.7e-05</t>
         </is>
       </c>
     </row>
@@ -4724,17 +4708,17 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>0.0161437</t>
+          <t>0.00880998</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>0.00031</t>
+          <t>0.000264</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>2.3377</t>
+          <t>0.017871</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -4744,12 +4728,12 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>2.36321</t>
+          <t>0.034568</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>8.9e-05</t>
+          <t>7.9e-05</t>
         </is>
       </c>
     </row>
@@ -4781,17 +4765,17 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>0.0138377</t>
+          <t>0.00848198</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>0.00028</t>
+          <t>0.000258</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>1.78156</t>
+          <t>0.024666</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -4801,12 +4785,12 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>1.8048</t>
+          <t>0.041184</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>8.3e-05</t>
+          <t>8e-05</t>
         </is>
       </c>
     </row>
@@ -4838,17 +4822,17 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>0.0139897</t>
+          <t>0.00856698</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>0.000291</t>
+          <t>0.000264</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>1.87295</t>
+          <t>0.012848</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -4858,12 +4842,12 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>1.89647</t>
+          <t>0.02964</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>8.4e-05</t>
+          <t>7.4e-05</t>
         </is>
       </c>
     </row>
@@ -4895,17 +4879,17 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>0.0168048</t>
+          <t>0.00877998</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>0.000287</t>
+          <t>0.000273</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>2.45394</t>
+          <t>0.01884</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -4915,12 +4899,12 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>2.47986</t>
+          <t>0.035466</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>8.8e-05</t>
+          <t>7.9e-05</t>
         </is>
       </c>
     </row>
@@ -4952,17 +4936,17 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>0.0138408</t>
+          <t>0.00842098</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>0.000301</t>
+          <t>0.000255</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>2.01426</t>
+          <t>0.016047</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -4972,12 +4956,12 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>2.03699</t>
+          <t>0.03223</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>0.000108</t>
+          <t>7.8e-05</t>
         </is>
       </c>
     </row>
@@ -5009,17 +4993,17 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>0.0151247</t>
+          <t>0.00865198</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>0.000308</t>
+          <t>0.000267</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>2.35772</t>
+          <t>0.018153</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -5029,12 +5013,12 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>2.38238</t>
+          <t>0.034759</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>8.6e-05</t>
+          <t>8.1e-05</t>
         </is>
       </c>
     </row>
@@ -5066,17 +5050,17 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>0.0139878</t>
+          <t>0.00855098</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>0.000273</t>
+          <t>0.00025</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>2.15499</t>
+          <t>0.015998</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -5086,12 +5070,12 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>2.1784</t>
+          <t>0.032586</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>8.7e-05</t>
+          <t>8e-05</t>
         </is>
       </c>
     </row>
@@ -5113,7 +5097,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -5123,17 +5107,17 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>0.0150487</t>
+          <t>0.00937698</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>0.000305</t>
+          <t>0.000286</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>1.9784</t>
+          <t>0.019947</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -5143,12 +5127,12 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>2.00286</t>
+          <t>0.037644</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>0.000157</t>
+          <t>9.8e-05</t>
         </is>
       </c>
     </row>
@@ -5180,17 +5164,17 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>0.0142118</t>
+          <t>0.00878499</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>0.000295</t>
+          <t>0.000264</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>2.15927</t>
+          <t>0.018186</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -5200,12 +5184,12 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>2.18268</t>
+          <t>0.034927</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>8.4e-05</t>
+          <t>7.5e-05</t>
         </is>
       </c>
     </row>
@@ -5227,7 +5211,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -5237,17 +5221,17 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>0.0140658</t>
+          <t>0.00850698</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>0.000289</t>
+          <t>0.00025</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>1.90698</t>
+          <t>0.013457</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -5257,12 +5241,12 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>1.93058</t>
+          <t>0.029965</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>0.000143</t>
+          <t>9.1e-05</t>
         </is>
       </c>
     </row>
@@ -5294,17 +5278,17 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>0.0148228</t>
+          <t>0.00854798</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>0.000288</t>
+          <t>0.00024</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>2.13786</t>
+          <t>0.010534</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -5314,12 +5298,12 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>2.16192</t>
+          <t>0.027139</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>8.3e-05</t>
+          <t>7.6e-05</t>
         </is>
       </c>
     </row>
@@ -5351,17 +5335,17 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>0.0154447</t>
+          <t>0.00881098</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>0.000285</t>
+          <t>0.000263</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>2.34073</t>
+          <t>0.026042</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -5371,12 +5355,12 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>2.36578</t>
+          <t>0.042775</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>9e-05</t>
+          <t>7.8e-05</t>
         </is>
       </c>
     </row>
@@ -5398,7 +5382,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -5408,17 +5392,17 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>0.0147838</t>
+          <t>0.00859598</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>0.000286</t>
+          <t>0.000255</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>1.99903</t>
+          <t>0.021857</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -5428,12 +5412,12 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>2.02301</t>
+          <t>0.038241</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>0.000158</t>
+          <t>9.2e-05</t>
         </is>
       </c>
     </row>
@@ -5465,17 +5449,17 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>0.0174618</t>
+          <t>0.00873698</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>0.000286</t>
+          <t>0.000276</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>2.68779</t>
+          <t>0.019436</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -5485,12 +5469,12 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>2.7148</t>
+          <t>0.036415</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>9.9e-05</t>
+          <t>8.1e-05</t>
         </is>
       </c>
     </row>
@@ -5522,17 +5506,17 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>0.0139018</t>
+          <t>0.00858798</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>0.000296</t>
+          <t>0.000271</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>2.08402</t>
+          <t>0.022461</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -5542,12 +5526,12 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>2.10732</t>
+          <t>0.039037</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>9e-05</t>
+          <t>8e-05</t>
         </is>
       </c>
     </row>
@@ -5579,17 +5563,17 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>0.0136148</t>
+          <t>0.00853698</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>0.000279</t>
+          <t>0.000272</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>1.82374</t>
+          <t>0.020308</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -5599,12 +5583,12 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>1.84658</t>
+          <t>0.036785</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>8.6e-05</t>
+          <t>7.9e-05</t>
         </is>
       </c>
     </row>
@@ -5636,17 +5620,17 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>0.0139368</t>
+          <t>0.00859198</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>0.000286</t>
+          <t>0.000278</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>2.33891</t>
+          <t>0.023109</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -5656,12 +5640,12 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>2.36177</t>
+          <t>0.039546</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>9.7e-05</t>
+          <t>7.8e-05</t>
         </is>
       </c>
     </row>
@@ -5693,17 +5677,17 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>0.0155777</t>
+          <t>0.00862298</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>0.000309</t>
+          <t>0.000258</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>2.46958</t>
+          <t>0.021906</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -5713,12 +5697,12 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>2.49502</t>
+          <t>0.038659</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>9.1e-05</t>
+          <t>7.8e-05</t>
         </is>
       </c>
     </row>
@@ -5750,7 +5734,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>0.0153337</t>
+          <t>0.00866397</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -5760,7 +5744,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>2.19026</t>
+          <t>0.018879</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -5770,12 +5754,12 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>2.21549</t>
+          <t>0.035783</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>8.7e-05</t>
+          <t>7.9e-05</t>
         </is>
       </c>
     </row>
@@ -5807,17 +5791,17 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>0.0144208</t>
+          <t>0.00859198</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>0.0003</t>
+          <t>0.000282</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>1.94508</t>
+          <t>0.01858</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -5827,12 +5811,12 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>1.96878</t>
+          <t>0.03525</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>8.4e-05</t>
+          <t>7.9e-05</t>
         </is>
       </c>
     </row>
@@ -5864,17 +5848,17 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>0.0166578</t>
+          <t>0.00873198</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>0.000305</t>
+          <t>0.000302</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>2.6724</t>
+          <t>0.024092</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -5884,12 +5868,12 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>2.69931</t>
+          <t>0.041017</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>8.6e-05</t>
+          <t>7.9e-05</t>
         </is>
       </c>
     </row>
@@ -5921,17 +5905,17 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>0.0150987</t>
+          <t>0.00875998</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>0.000274</t>
+          <t>0.000247</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>2.33215</t>
+          <t>0.02144</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -5941,12 +5925,12 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>2.35654</t>
+          <t>0.037982</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>9.2e-05</t>
+          <t>8.5e-05</t>
         </is>
       </c>
     </row>
@@ -5968,7 +5952,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -5978,17 +5962,17 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>0.0150677</t>
+          <t>0.00864098</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>0.000304</t>
+          <t>0.00029</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>2.22346</t>
+          <t>0.02456</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -5998,12 +5982,12 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>2.24812</t>
+          <t>0.041084</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>0.000144</t>
+          <t>9.9e-05</t>
         </is>
       </c>
     </row>
@@ -6035,17 +6019,17 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>0.0146708</t>
+          <t>0.00837997</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>0.000288</t>
+          <t>0.000254</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>2.3725</t>
+          <t>0.014732</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -6055,12 +6039,12 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>2.39639</t>
+          <t>0.031033</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>8.8e-05</t>
+          <t>8.4e-05</t>
         </is>
       </c>
     </row>
@@ -6092,17 +6076,17 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>0.0136788</t>
+          <t>0.00862098</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>0.000296</t>
+          <t>0.000273</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>2.12556</t>
+          <t>0.02058</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -6112,12 +6096,12 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>2.14868</t>
+          <t>0.037148</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>8.3e-05</t>
+          <t>8.2e-05</t>
         </is>
       </c>
     </row>
@@ -6149,17 +6133,17 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>0.0142298</t>
+          <t>0.00859798</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>0.000274</t>
+          <t>0.000272</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>1.90853</t>
+          <t>0.020019</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -6169,12 +6153,12 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>1.93209</t>
+          <t>0.036706</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>9e-05</t>
+          <t>8.3e-05</t>
         </is>
       </c>
     </row>
